--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_314__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_314__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,73 +5873,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>9.455493927001953</c:v>
+                  <c:v>9.455492973327637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.07255935668945</c:v>
+                  <c:v>18.07256126403809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15275096893311</c:v>
+                  <c:v>11.15274810791016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.88852119445801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.48941802978516</c:v>
+                  <c:v>69.48941040039062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.36552619934082</c:v>
+                  <c:v>13.36553478240967</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22.6373233795166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.86347961425781</c:v>
+                  <c:v>19.86348152160645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.934786796569824</c:v>
+                  <c:v>7.934791564941406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.076336860656738</c:v>
+                  <c:v>-8.076334953308105</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>63.49986267089844</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.81532859802246</c:v>
+                  <c:v>15.81532955169678</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.259811878204346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.97908020019531</c:v>
+                  <c:v>34.97907638549805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.22627639770508</c:v>
+                  <c:v>24.22627830505371</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.153553009033203</c:v>
+                  <c:v>5.153556346893311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.00921440124512</c:v>
+                  <c:v>19.00921630859375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.831653594970703</c:v>
+                  <c:v>8.831655502319336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.5864372253418</c:v>
+                  <c:v>17.58643341064453</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.50491905212402</c:v>
+                  <c:v>17.50492095947266</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>39.53021240234375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.01367855072021</c:v>
+                  <c:v>15.0136775970459</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.23530006408691</c:v>
+                  <c:v>15.23530101776123</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>42.07377243041992</c:v>
@@ -5948,13 +5948,13 @@
                   <c:v>19.94976043701172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.93391227722168</c:v>
+                  <c:v>19.93391609191895</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.705474853515625</c:v>
+                  <c:v>9.705475807189941</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.24040222167969</c:v>
+                  <c:v>17.24040794372559</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>18.76010322570801</c:v>
@@ -5963,58 +5963,58 @@
                   <c:v>14.95192337036133</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.16528701782227</c:v>
+                  <c:v>28.16529083251953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.19025993347168</c:v>
+                  <c:v>17.19026184082031</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.43493938446045</c:v>
+                  <c:v>15.43493747711182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.2417163848877</c:v>
+                  <c:v>15.24171543121338</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19.37139320373535</c:v>
+                  <c:v>19.37139129638672</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.06631851196289</c:v>
+                  <c:v>12.06631374359131</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.40633296966553</c:v>
+                  <c:v>13.40633487701416</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>18.10976982116699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.878665924072266</c:v>
+                  <c:v>8.878667831420898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.28878498077393</c:v>
+                  <c:v>12.28878593444824</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.2004337310791</c:v>
+                  <c:v>21.20043182373047</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.02223587036133</c:v>
+                  <c:v>34.02224731445312</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>26.37543678283691</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.81091213226318</c:v>
+                  <c:v>15.81090831756592</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.55289649963379</c:v>
+                  <c:v>28.55290031433105</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.547940254211426</c:v>
+                  <c:v>9.547935485839844</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.881060004234314</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.80350589752197</c:v>
+                  <c:v>11.80350875854492</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>14.28615283966064</c:v>
@@ -6023,28 +6023,28 @@
                   <c:v>16.88433647155762</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.329499244689941</c:v>
+                  <c:v>9.329500198364258</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.12600898742676</c:v>
+                  <c:v>10.12601375579834</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.51938629150391</c:v>
+                  <c:v>11.51938533782959</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.34570503234863</c:v>
+                  <c:v>14.34570121765137</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.02604675292969</c:v>
+                  <c:v>16.02605247497559</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.24782657623291</c:v>
+                  <c:v>15.24782943725586</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25.83302116394043</c:v>
+                  <c:v>25.8330192565918</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20.29311752319336</c:v>
+                  <c:v>20.29312133789062</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>14.96061325073242</c:v>
@@ -6056,28 +6056,28 @@
                   <c:v>13.41229820251465</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.59091186523438</c:v>
+                  <c:v>14.59090995788574</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14.26637935638428</c:v>
+                  <c:v>14.26638507843018</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.585020065307617</c:v>
+                  <c:v>6.585022449493408</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16.12925910949707</c:v>
+                  <c:v>16.12926292419434</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.95397472381592</c:v>
+                  <c:v>10.95397186279297</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>18.00785255432129</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23.61174392700195</c:v>
+                  <c:v>23.61174583435059</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.32054615020752</c:v>
+                  <c:v>9.320548057556152</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>15.62770843505859</c:v>
@@ -6086,25 +6086,25 @@
                   <c:v>19.750732421875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17.4295768737793</c:v>
+                  <c:v>17.42958068847656</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.35716819763184</c:v>
+                  <c:v>18.35717010498047</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.38631534576416</c:v>
+                  <c:v>12.38631439208984</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>17.71006965637207</c:v>
+                  <c:v>17.7100715637207</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.61835289001465</c:v>
+                  <c:v>12.61834907531738</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.37408638000488</c:v>
+                  <c:v>12.37408542633057</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.40565299987793</c:v>
+                  <c:v>16.40564727783203</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>10.01169967651367</c:v>
@@ -6113,52 +6113,52 @@
                   <c:v>14.44780826568604</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.669753551483154</c:v>
+                  <c:v>4.669748783111572</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>12.94123554229736</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.39046192169189</c:v>
+                  <c:v>12.39045906066895</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.22843551635742</c:v>
+                  <c:v>10.22843170166016</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.50703430175781</c:v>
+                  <c:v>12.50703811645508</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>17.76336479187012</c:v>
+                  <c:v>17.76336669921875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14.8384256362915</c:v>
+                  <c:v>14.83842086791992</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57.18740081787109</c:v>
+                  <c:v>57.18739700317383</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.71611499786377</c:v>
+                  <c:v>10.71611213684082</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>19.49901390075684</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.88577747344971</c:v>
+                  <c:v>13.88578033447266</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>30.52699089050293</c:v>
+                  <c:v>30.52698707580566</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.76712036132812</c:v>
+                  <c:v>13.76711940765381</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>21.96378326416016</c:v>
+                  <c:v>21.96378517150879</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.40112113952637</c:v>
+                  <c:v>14.401123046875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.80620956420898</c:v>
+                  <c:v>19.80621147155762</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>12.30288410186768</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9.455493927001953</v>
+        <v>9.455492973327637</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>18.07255935668945</v>
+        <v>18.07256126403809</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.15275096893311</v>
+        <v>11.15274810791016</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>69.48941802978516</v>
+        <v>69.48941040039062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.36552619934082</v>
+        <v>13.36553478240967</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.86347961425781</v>
+        <v>19.86348152160645</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.934786796569824</v>
+        <v>7.934791564941406</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-8.076336860656738</v>
+        <v>-8.076334953308105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>15.81532859802246</v>
+        <v>15.81532955169678</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.97908020019531</v>
+        <v>34.97907638549805</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>24.22627639770508</v>
+        <v>24.22627830505371</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>5.153553009033203</v>
+        <v>5.153556346893311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.00921440124512</v>
+        <v>19.00921630859375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>8.831653594970703</v>
+        <v>8.831655502319336</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>17.5864372253418</v>
+        <v>17.58643341064453</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.50491905212402</v>
+        <v>17.50492095947266</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>15.01367855072021</v>
+        <v>15.0136775970459</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.23530006408691</v>
+        <v>15.23530101776123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>19.93391227722168</v>
+        <v>19.93391609191895</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9.705474853515625</v>
+        <v>9.705475807189941</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>17.24040222167969</v>
+        <v>17.24040794372559</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>28.16528701782227</v>
+        <v>28.16529083251953</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>17.19025993347168</v>
+        <v>17.19026184082031</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>15.43493938446045</v>
+        <v>15.43493747711182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>15.2417163848877</v>
+        <v>15.24171543121338</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>19.37139320373535</v>
+        <v>19.37139129638672</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>12.06631851196289</v>
+        <v>12.06631374359131</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.40633296966553</v>
+        <v>13.40633487701416</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8.878665924072266</v>
+        <v>8.878667831420898</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>12.28878498077393</v>
+        <v>12.28878593444824</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>21.2004337310791</v>
+        <v>21.20043182373047</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>34.02223587036133</v>
+        <v>34.02224731445312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>15.81091213226318</v>
+        <v>15.81090831756592</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>28.55289649963379</v>
+        <v>28.55290031433105</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>9.547940254211426</v>
+        <v>9.547935485839844</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>11.80350589752197</v>
+        <v>11.80350875854492</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>9.329499244689941</v>
+        <v>9.329500198364258</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10.12600898742676</v>
+        <v>10.12601375579834</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>11.51938629150391</v>
+        <v>11.51938533782959</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>14.34570503234863</v>
+        <v>14.34570121765137</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>16.02604675292969</v>
+        <v>16.02605247497559</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>15.24782657623291</v>
+        <v>15.24782943725586</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>25.83302116394043</v>
+        <v>25.8330192565918</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>20.29311752319336</v>
+        <v>20.29312133789062</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>14.59091186523438</v>
+        <v>14.59090995788574</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>14.26637935638428</v>
+        <v>14.26638507843018</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>6.585020065307617</v>
+        <v>6.585022449493408</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>16.12925910949707</v>
+        <v>16.12926292419434</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>10.95397472381592</v>
+        <v>10.95397186279297</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>23.61174392700195</v>
+        <v>23.61174583435059</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.32054615020752</v>
+        <v>9.320548057556152</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>17.4295768737793</v>
+        <v>17.42958068847656</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>18.35716819763184</v>
+        <v>18.35717010498047</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>12.38631534576416</v>
+        <v>12.38631439208984</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>17.71006965637207</v>
+        <v>17.7100715637207</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>12.61835289001465</v>
+        <v>12.61834907531738</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>12.37408638000488</v>
+        <v>12.37408542633057</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>16.40565299987793</v>
+        <v>16.40564727783203</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>4.669753551483154</v>
+        <v>4.669748783111572</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>12.39046192169189</v>
+        <v>12.39045906066895</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>10.22843551635742</v>
+        <v>10.22843170166016</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>12.50703430175781</v>
+        <v>12.50703811645508</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>17.76336479187012</v>
+        <v>17.76336669921875</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>14.8384256362915</v>
+        <v>14.83842086791992</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>57.18740081787109</v>
+        <v>57.18739700317383</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>10.71611499786377</v>
+        <v>10.71611213684082</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>13.88577747344971</v>
+        <v>13.88578033447266</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>30.52699089050293</v>
+        <v>30.52698707580566</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>13.76712036132812</v>
+        <v>13.76711940765381</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>21.96378326416016</v>
+        <v>21.96378517150879</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>14.40112113952637</v>
+        <v>14.401123046875</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>19.80620956420898</v>
+        <v>19.80621147155762</v>
       </c>
     </row>
     <row r="98" spans="1:6">
